--- a/input/static_data/cost/season_16/player_cost_GW32.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW32.xlsx
@@ -217,37 +217,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L4" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="5">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="19">
@@ -825,37 +825,37 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L20" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="21">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="39">
@@ -1547,37 +1547,37 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="40">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2459,37 +2459,37 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L63" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="64">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L101" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="102">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="123">
@@ -4777,37 +4777,37 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L124" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="125">
@@ -4815,37 +4815,37 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="126">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L154" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L156" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="157">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="173">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="179">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7817,37 +7817,37 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="205">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L225" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="226">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="227">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="246">
@@ -9489,37 +9489,37 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="249">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L272" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="273">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="279">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="285">
@@ -11503,37 +11503,37 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L301" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="302">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.06E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="332">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="337">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="357">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="361">
@@ -13859,37 +13859,37 @@
         <v>362.0</v>
       </c>
       <c r="B363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="364">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="383">
@@ -14885,37 +14885,37 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L390" t="n">
-        <v>4600000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="391">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9300000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16063,37 +16063,37 @@
         <v>420.0</v>
       </c>
       <c r="B421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L421" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="422">
@@ -16253,37 +16253,37 @@
         <v>425.0</v>
       </c>
       <c r="B426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="427">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="431">
@@ -17203,37 +17203,37 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="452">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L452" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17317,37 +17317,37 @@
         <v>453.0</v>
       </c>
       <c r="B454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="455">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="461">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18267,37 +18267,37 @@
         <v>478.0</v>
       </c>
       <c r="B479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L479" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="480">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="481">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="486">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L518" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="519">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20319,37 +20319,37 @@
         <v>532.0</v>
       </c>
       <c r="B533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="534">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="536">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="549">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21079,37 +21079,37 @@
         <v>552.0</v>
       </c>
       <c r="B553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="554">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8000000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="C577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="D577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="E577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="F577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="G577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="H577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="I577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="J577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="K577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="L577" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="578">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
     </row>
     <row r="583">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>8900000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="C585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="D585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="E585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="F585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="G585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="H585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="I585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="J585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="K585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="L585" t="n">
-        <v>1.02E7</v>
+        <v>1.05E7</v>
       </c>
     </row>
     <row r="586">
@@ -22675,37 +22675,37 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L595" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="596">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="600">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="615">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>5900000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="621">
